--- a/直播源汇总文档/IPV6直播源汇总/甘肃移动-IP版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/甘肃移动-IP版.xlsx
@@ -682,217 +682,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/270000001128/9900000003/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000507/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000513/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000094/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000071/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000063/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000062/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000085/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000086/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000087/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000088/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000501/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000001/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000502/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000503/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000005/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000006/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000504/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000008/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000505/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000506/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000508/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000509/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000510/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000511/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000512/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000016/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000046/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000072/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000066/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000060/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000067/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000073/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000528/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000069/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000095/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000096/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000097/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000019/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000020/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000021/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000022/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000091/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000092/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000100/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000102/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000103/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000108/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000109/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000110/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000111/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000112/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000113/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000116/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000121/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000122/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000098/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000099/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000101/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000104/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000105/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000106/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>军旅剧场</t>
   </si>
   <si>
-    <t>/270000001128/9900000107/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>睛彩篮球</t>
   </si>
   <si>
-    <t>/270000001128/9900000118/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>睛彩竞技</t>
   </si>
   <si>
-    <t>/270000001128/9900000119/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>睛彩青少</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000120/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000532/index.m3u8?channel-id=newtv&amp;Ace</t>
   </si>
   <si>
     <t>,</t>
@@ -947,13 +746,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NewTV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/270000001128/9900000074/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>湖南金鹰卡通</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -962,138 +754,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/270000001128/9900000039/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000040/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000515/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>北京纪实科教</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/270000001128/9900000061/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>江苏优漫卡通</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/270000001128/9900000070/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000518/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000516/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000531/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000523/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000524/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000529/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000519/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000522/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000527/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000520/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000025/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000057/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000517/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000530/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000027/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000030/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000053/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000514/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000526/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000026/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000034/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000037/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000047/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000525/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000036/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000023/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000035/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000042/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000045/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000043/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000059/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000044/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000521/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000058/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000064/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>西藏卫视藏语</t>
-  </si>
-  <si>
-    <t>/270000001128/9900000093/index.m3u8?channel-id=newtv&amp;Ace</t>
   </si>
   <si>
     <t>IPE</t>
@@ -1112,9 +781,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/270000001128/9900000115/index.m3u8?channel-id=newtv&amp;Ace</t>
-  </si>
-  <si>
     <t>CETV-1</t>
   </si>
   <si>
@@ -1122,6 +788,339 @@
   </si>
   <si>
     <t>CETV-4</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000501/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000001/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000502/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000003/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000503/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000005/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000507/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000006/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000504/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000008/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000505/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000506/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000508/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000509/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000510/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000511/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000512/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000016/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000513/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000094/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000046/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000071/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000072/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000063/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000062/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000085/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000086/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000087/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000088/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000064/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000514/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000516/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000059/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000517/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000519/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000023/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000520/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000034/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000036/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000037/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000057/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000027/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000521/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000522/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000523/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000030/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000524/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000525/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000066/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000526/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000044/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000047/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000060/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000042/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000058/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000067/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000527/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000053/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000026/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000529/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000025/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000530/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000043/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000093/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000045/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000073/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000035/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000531/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000518/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000528/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000069/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000515/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000040/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000061/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000074/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000039/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000070/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000119/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000118/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000120/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000532/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>NEWTV</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000104/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000022/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000021/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000020/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000019/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000099/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000121/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000097/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000092/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000106/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000105/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000095/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000096/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000091/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000108/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000112/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000113/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000100/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000109/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000122/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000102/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000107/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000110/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000116/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000111/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000098/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000103/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000101/index.m3u8?channel-id=NEWTV&amp;Ace</t>
+  </si>
+  <si>
+    <t>/270000001128/9900000115/index.m3u8?channel-id=NEWTV&amp;Ace</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1679,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
         <v>206</v>
@@ -1700,7 +1699,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>206</v>
@@ -1720,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>206</v>
@@ -1740,7 +1739,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -1760,7 +1759,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
         <v>206</v>
@@ -1780,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
         <v>206</v>
@@ -1800,7 +1799,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>206</v>
@@ -1820,7 +1819,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
         <v>206</v>
@@ -1840,7 +1839,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
         <v>206</v>
@@ -1860,7 +1859,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
         <v>206</v>
@@ -2080,7 +2079,7 @@
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
         <v>206</v>
@@ -2100,7 +2099,7 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F23" t="s">
         <v>206</v>
@@ -2120,7 +2119,7 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F24" t="s">
         <v>206</v>
@@ -2140,7 +2139,7 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
         <v>206</v>
@@ -2160,7 +2159,7 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F26" t="s">
         <v>206</v>
@@ -2280,7 +2279,7 @@
         <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F32" t="s">
         <v>206</v>
@@ -2300,7 +2299,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -2320,7 +2319,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
         <v>206</v>
@@ -2340,7 +2339,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F35" t="s">
         <v>206</v>
@@ -2360,7 +2359,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
         <v>206</v>
@@ -2380,7 +2379,7 @@
         <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
         <v>206</v>
@@ -2400,7 +2399,7 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F38" t="s">
         <v>206</v>
@@ -2420,7 +2419,7 @@
         <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
         <v>206</v>
@@ -2440,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
         <v>206</v>
@@ -2460,7 +2459,7 @@
         <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F41" t="s">
         <v>206</v>
@@ -2680,7 +2679,7 @@
         <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
         <v>206</v>
@@ -2700,7 +2699,7 @@
         <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F53" t="s">
         <v>206</v>
@@ -2720,7 +2719,7 @@
         <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F54" t="s">
         <v>206</v>
@@ -2740,7 +2739,7 @@
         <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F55" t="s">
         <v>206</v>
@@ -2760,7 +2759,7 @@
         <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F56" t="s">
         <v>206</v>
@@ -2880,7 +2879,7 @@
         <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F62" t="s">
         <v>206</v>
@@ -2900,7 +2899,7 @@
         <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F63" t="s">
         <v>206</v>
@@ -2920,7 +2919,7 @@
         <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F64" t="s">
         <v>206</v>
@@ -2940,7 +2939,7 @@
         <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F65" t="s">
         <v>206</v>
@@ -2960,7 +2959,7 @@
         <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F66" t="s">
         <v>206</v>
@@ -2980,7 +2979,7 @@
         <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F67" t="s">
         <v>206</v>
@@ -3000,7 +2999,7 @@
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F68" t="s">
         <v>206</v>
@@ -3020,7 +3019,7 @@
         <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F69" t="s">
         <v>206</v>
@@ -3040,7 +3039,7 @@
         <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
         <v>206</v>
@@ -3060,7 +3059,7 @@
         <v>37</v>
       </c>
       <c r="E71" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F71" t="s">
         <v>206</v>
@@ -3180,7 +3179,7 @@
         <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F77" t="s">
         <v>206</v>
@@ -3200,7 +3199,7 @@
         <v>34</v>
       </c>
       <c r="E78" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F78" t="s">
         <v>206</v>
@@ -3220,7 +3219,7 @@
         <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F79" t="s">
         <v>206</v>
@@ -3240,7 +3239,7 @@
         <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F80" t="s">
         <v>206</v>
@@ -3260,7 +3259,7 @@
         <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F81" t="s">
         <v>206</v>
@@ -3380,7 +3379,7 @@
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="F87" t="s">
         <v>206</v>
@@ -3400,7 +3399,7 @@
         <v>34</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="F88" t="s">
         <v>206</v>
@@ -3420,7 +3419,7 @@
         <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="F89" t="s">
         <v>206</v>
@@ -3440,7 +3439,7 @@
         <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="F90" t="s">
         <v>206</v>
@@ -3460,7 +3459,7 @@
         <v>37</v>
       </c>
       <c r="E91" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="F91" t="s">
         <v>206</v>
@@ -3580,7 +3579,7 @@
         <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F97" t="s">
         <v>206</v>
@@ -3600,7 +3599,7 @@
         <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F98" t="s">
         <v>206</v>
@@ -3620,7 +3619,7 @@
         <v>35</v>
       </c>
       <c r="E99" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F99" t="s">
         <v>206</v>
@@ -3640,7 +3639,7 @@
         <v>36</v>
       </c>
       <c r="E100" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F100" t="s">
         <v>206</v>
@@ -3660,7 +3659,7 @@
         <v>37</v>
       </c>
       <c r="E101" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F101" t="s">
         <v>206</v>
@@ -3780,7 +3779,7 @@
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F107" t="s">
         <v>206</v>
@@ -3800,7 +3799,7 @@
         <v>34</v>
       </c>
       <c r="E108" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F108" t="s">
         <v>206</v>
@@ -3820,7 +3819,7 @@
         <v>35</v>
       </c>
       <c r="E109" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F109" t="s">
         <v>206</v>
@@ -3840,7 +3839,7 @@
         <v>36</v>
       </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F110" t="s">
         <v>206</v>
@@ -3860,7 +3859,7 @@
         <v>37</v>
       </c>
       <c r="E111" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F111" t="s">
         <v>206</v>
@@ -3980,7 +3979,7 @@
         <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="F117" t="s">
         <v>206</v>
@@ -4000,7 +3999,7 @@
         <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="F118" t="s">
         <v>206</v>
@@ -4020,7 +4019,7 @@
         <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="F119" t="s">
         <v>206</v>
@@ -4040,7 +4039,7 @@
         <v>36</v>
       </c>
       <c r="E120" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="F120" t="s">
         <v>206</v>
@@ -4060,7 +4059,7 @@
         <v>37</v>
       </c>
       <c r="E121" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="F121" t="s">
         <v>206</v>
@@ -4180,7 +4179,7 @@
         <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
         <v>206</v>
@@ -4200,7 +4199,7 @@
         <v>34</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
         <v>206</v>
@@ -4220,7 +4219,7 @@
         <v>35</v>
       </c>
       <c r="E129" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
         <v>206</v>
@@ -4240,7 +4239,7 @@
         <v>36</v>
       </c>
       <c r="E130" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
         <v>206</v>
@@ -4260,7 +4259,7 @@
         <v>37</v>
       </c>
       <c r="E131" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
         <v>206</v>
@@ -4380,7 +4379,7 @@
         <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F137" t="s">
         <v>206</v>
@@ -4400,7 +4399,7 @@
         <v>34</v>
       </c>
       <c r="E138" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F138" t="s">
         <v>206</v>
@@ -4420,7 +4419,7 @@
         <v>35</v>
       </c>
       <c r="E139" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F139" t="s">
         <v>206</v>
@@ -4440,7 +4439,7 @@
         <v>36</v>
       </c>
       <c r="E140" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F140" t="s">
         <v>206</v>
@@ -4460,7 +4459,7 @@
         <v>37</v>
       </c>
       <c r="E141" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F141" t="s">
         <v>206</v>
@@ -4580,7 +4579,7 @@
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F147" t="s">
         <v>206</v>
@@ -4600,7 +4599,7 @@
         <v>34</v>
       </c>
       <c r="E148" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F148" t="s">
         <v>206</v>
@@ -4620,7 +4619,7 @@
         <v>35</v>
       </c>
       <c r="E149" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F149" t="s">
         <v>206</v>
@@ -4640,7 +4639,7 @@
         <v>36</v>
       </c>
       <c r="E150" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F150" t="s">
         <v>206</v>
@@ -4660,7 +4659,7 @@
         <v>37</v>
       </c>
       <c r="E151" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F151" t="s">
         <v>206</v>
@@ -4780,7 +4779,7 @@
         <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F157" t="s">
         <v>206</v>
@@ -4800,7 +4799,7 @@
         <v>34</v>
       </c>
       <c r="E158" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F158" t="s">
         <v>206</v>
@@ -4820,7 +4819,7 @@
         <v>35</v>
       </c>
       <c r="E159" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F159" t="s">
         <v>206</v>
@@ -4840,7 +4839,7 @@
         <v>36</v>
       </c>
       <c r="E160" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F160" t="s">
         <v>206</v>
@@ -4860,7 +4859,7 @@
         <v>37</v>
       </c>
       <c r="E161" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F161" t="s">
         <v>206</v>
@@ -4980,7 +4979,7 @@
         <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F167" t="s">
         <v>206</v>
@@ -5000,7 +4999,7 @@
         <v>34</v>
       </c>
       <c r="E168" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F168" t="s">
         <v>206</v>
@@ -5020,7 +5019,7 @@
         <v>35</v>
       </c>
       <c r="E169" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F169" t="s">
         <v>206</v>
@@ -5040,7 +5039,7 @@
         <v>36</v>
       </c>
       <c r="E170" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F170" t="s">
         <v>206</v>
@@ -5060,7 +5059,7 @@
         <v>37</v>
       </c>
       <c r="E171" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F171" t="s">
         <v>206</v>
@@ -5180,7 +5179,7 @@
         <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="F177" t="s">
         <v>206</v>
@@ -5200,7 +5199,7 @@
         <v>34</v>
       </c>
       <c r="E178" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="F178" t="s">
         <v>206</v>
@@ -5220,7 +5219,7 @@
         <v>35</v>
       </c>
       <c r="E179" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="F179" t="s">
         <v>206</v>
@@ -5240,7 +5239,7 @@
         <v>36</v>
       </c>
       <c r="E180" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="F180" t="s">
         <v>206</v>
@@ -5260,7 +5259,7 @@
         <v>37</v>
       </c>
       <c r="E181" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="F181" t="s">
         <v>206</v>
@@ -5280,7 +5279,7 @@
         <v>27</v>
       </c>
       <c r="E182" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="F182" t="s">
         <v>206</v>
@@ -5300,7 +5299,7 @@
         <v>34</v>
       </c>
       <c r="E183" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="F183" t="s">
         <v>206</v>
@@ -5320,7 +5319,7 @@
         <v>35</v>
       </c>
       <c r="E184" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="F184" t="s">
         <v>206</v>
@@ -5340,7 +5339,7 @@
         <v>36</v>
       </c>
       <c r="E185" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="F185" t="s">
         <v>206</v>
@@ -5360,7 +5359,7 @@
         <v>37</v>
       </c>
       <c r="E186" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="F186" t="s">
         <v>206</v>
@@ -5368,7 +5367,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B187" t="s">
         <v>25</v>
@@ -5380,7 +5379,7 @@
         <v>27</v>
       </c>
       <c r="E187" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F187" t="s">
         <v>206</v>
@@ -5388,7 +5387,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B188" t="s">
         <v>25</v>
@@ -5400,7 +5399,7 @@
         <v>34</v>
       </c>
       <c r="E188" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F188" t="s">
         <v>206</v>
@@ -5408,7 +5407,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B189" t="s">
         <v>25</v>
@@ -5420,7 +5419,7 @@
         <v>35</v>
       </c>
       <c r="E189" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F189" t="s">
         <v>206</v>
@@ -5428,7 +5427,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B190" t="s">
         <v>25</v>
@@ -5440,7 +5439,7 @@
         <v>36</v>
       </c>
       <c r="E190" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F190" t="s">
         <v>206</v>
@@ -5448,7 +5447,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B191" t="s">
         <v>25</v>
@@ -5460,7 +5459,7 @@
         <v>37</v>
       </c>
       <c r="E191" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F191" t="s">
         <v>206</v>
@@ -5468,7 +5467,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
@@ -5488,7 +5487,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B193" t="s">
         <v>25</v>
@@ -5508,7 +5507,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B194" t="s">
         <v>25</v>
@@ -5528,7 +5527,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B195" t="s">
         <v>25</v>
@@ -5548,7 +5547,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B196" t="s">
         <v>25</v>
@@ -5568,7 +5567,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="B197" t="s">
         <v>25</v>
@@ -5580,7 +5579,7 @@
         <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F197" t="s">
         <v>206</v>
@@ -5588,7 +5587,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="B198" t="s">
         <v>25</v>
@@ -5600,7 +5599,7 @@
         <v>34</v>
       </c>
       <c r="E198" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F198" t="s">
         <v>206</v>
@@ -5608,7 +5607,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
@@ -5620,7 +5619,7 @@
         <v>35</v>
       </c>
       <c r="E199" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F199" t="s">
         <v>206</v>
@@ -5628,7 +5627,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
@@ -5640,7 +5639,7 @@
         <v>36</v>
       </c>
       <c r="E200" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F200" t="s">
         <v>206</v>
@@ -5648,7 +5647,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -5660,7 +5659,7 @@
         <v>37</v>
       </c>
       <c r="E201" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F201" t="s">
         <v>206</v>
@@ -5668,7 +5667,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B202" t="s">
         <v>25</v>
@@ -5680,7 +5679,7 @@
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F202" t="s">
         <v>206</v>
@@ -5688,7 +5687,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B203" t="s">
         <v>25</v>
@@ -5700,7 +5699,7 @@
         <v>34</v>
       </c>
       <c r="E203" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F203" t="s">
         <v>206</v>
@@ -5708,7 +5707,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s">
         <v>25</v>
@@ -5720,7 +5719,7 @@
         <v>35</v>
       </c>
       <c r="E204" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F204" t="s">
         <v>206</v>
@@ -5728,7 +5727,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B205" t="s">
         <v>25</v>
@@ -5740,7 +5739,7 @@
         <v>36</v>
       </c>
       <c r="E205" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F205" t="s">
         <v>206</v>
@@ -5748,7 +5747,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B206" t="s">
         <v>25</v>
@@ -5760,7 +5759,7 @@
         <v>37</v>
       </c>
       <c r="E206" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F206" t="s">
         <v>206</v>
@@ -5768,7 +5767,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B207" t="s">
         <v>25</v>
@@ -5788,7 +5787,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B208" t="s">
         <v>25</v>
@@ -5808,7 +5807,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s">
         <v>25</v>
@@ -5828,7 +5827,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B210" t="s">
         <v>25</v>
@@ -5848,7 +5847,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B211" t="s">
         <v>25</v>
@@ -5880,7 +5879,7 @@
         <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F212" t="s">
         <v>206</v>
@@ -5900,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="E213" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F213" t="s">
         <v>206</v>
@@ -5920,7 +5919,7 @@
         <v>35</v>
       </c>
       <c r="E214" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F214" t="s">
         <v>206</v>
@@ -5940,7 +5939,7 @@
         <v>36</v>
       </c>
       <c r="E215" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F215" t="s">
         <v>206</v>
@@ -5960,7 +5959,7 @@
         <v>37</v>
       </c>
       <c r="E216" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F216" t="s">
         <v>206</v>
@@ -5980,7 +5979,7 @@
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F217" t="s">
         <v>206</v>
@@ -6000,7 +5999,7 @@
         <v>34</v>
       </c>
       <c r="E218" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F218" t="s">
         <v>206</v>
@@ -6020,7 +6019,7 @@
         <v>35</v>
       </c>
       <c r="E219" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F219" t="s">
         <v>206</v>
@@ -6040,7 +6039,7 @@
         <v>36</v>
       </c>
       <c r="E220" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F220" t="s">
         <v>206</v>
@@ -6060,7 +6059,7 @@
         <v>37</v>
       </c>
       <c r="E221" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F221" t="s">
         <v>206</v>
@@ -6080,7 +6079,7 @@
         <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="F222" t="s">
         <v>206</v>
@@ -6100,7 +6099,7 @@
         <v>34</v>
       </c>
       <c r="E223" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="F223" t="s">
         <v>206</v>
@@ -6120,7 +6119,7 @@
         <v>35</v>
       </c>
       <c r="E224" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="F224" t="s">
         <v>206</v>
@@ -6140,7 +6139,7 @@
         <v>36</v>
       </c>
       <c r="E225" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="F225" t="s">
         <v>206</v>
@@ -6160,7 +6159,7 @@
         <v>37</v>
       </c>
       <c r="E226" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="F226" t="s">
         <v>206</v>
@@ -6180,7 +6179,7 @@
         <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="F227" t="s">
         <v>206</v>
@@ -6200,7 +6199,7 @@
         <v>34</v>
       </c>
       <c r="E228" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="F228" t="s">
         <v>206</v>
@@ -6220,7 +6219,7 @@
         <v>35</v>
       </c>
       <c r="E229" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="F229" t="s">
         <v>206</v>
@@ -6240,7 +6239,7 @@
         <v>36</v>
       </c>
       <c r="E230" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="F230" t="s">
         <v>206</v>
@@ -6260,7 +6259,7 @@
         <v>37</v>
       </c>
       <c r="E231" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="F231" t="s">
         <v>206</v>
@@ -6280,7 +6279,7 @@
         <v>27</v>
       </c>
       <c r="E232" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="F232" t="s">
         <v>206</v>
@@ -6300,7 +6299,7 @@
         <v>34</v>
       </c>
       <c r="E233" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="F233" t="s">
         <v>206</v>
@@ -6320,7 +6319,7 @@
         <v>35</v>
       </c>
       <c r="E234" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="F234" t="s">
         <v>206</v>
@@ -6340,7 +6339,7 @@
         <v>36</v>
       </c>
       <c r="E235" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="F235" t="s">
         <v>206</v>
@@ -6360,7 +6359,7 @@
         <v>37</v>
       </c>
       <c r="E236" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="F236" t="s">
         <v>206</v>
@@ -6380,7 +6379,7 @@
         <v>27</v>
       </c>
       <c r="E237" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="F237" t="s">
         <v>206</v>
@@ -6400,7 +6399,7 @@
         <v>34</v>
       </c>
       <c r="E238" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="F238" t="s">
         <v>206</v>
@@ -6420,7 +6419,7 @@
         <v>35</v>
       </c>
       <c r="E239" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="F239" t="s">
         <v>206</v>
@@ -6440,7 +6439,7 @@
         <v>36</v>
       </c>
       <c r="E240" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="F240" t="s">
         <v>206</v>
@@ -6460,7 +6459,7 @@
         <v>37</v>
       </c>
       <c r="E241" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="F241" t="s">
         <v>206</v>
@@ -6524,7 +6523,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
         <v>206</v>
@@ -6544,7 +6543,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>206</v>
@@ -6564,7 +6563,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
         <v>206</v>
@@ -6584,7 +6583,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -6604,7 +6603,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
         <v>206</v>
@@ -6767,7 +6766,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
         <v>206</v>
@@ -6784,10 +6783,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
         <v>206</v>
@@ -6804,10 +6803,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
         <v>206</v>
@@ -6824,10 +6823,10 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
         <v>206</v>
@@ -6844,10 +6843,10 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
         <v>206</v>
@@ -6967,7 +6966,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="F17" t="s">
         <v>206</v>
@@ -6984,10 +6983,10 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="F18" t="s">
         <v>206</v>
@@ -7004,10 +7003,10 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E19" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
         <v>206</v>
@@ -7024,10 +7023,10 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="F20" t="s">
         <v>206</v>
@@ -7044,10 +7043,10 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
         <v>206</v>
@@ -7267,7 +7266,7 @@
         <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
         <v>206</v>
@@ -7284,10 +7283,10 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -7304,10 +7303,10 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="F34" t="s">
         <v>206</v>
@@ -7324,10 +7323,10 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="F35" t="s">
         <v>206</v>
@@ -7344,10 +7343,10 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="F36" t="s">
         <v>206</v>
@@ -7467,7 +7466,7 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -7484,10 +7483,10 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="F43" t="s">
         <v>206</v>
@@ -7504,10 +7503,10 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="F44" t="s">
         <v>206</v>
@@ -7524,10 +7523,10 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="F45" t="s">
         <v>206</v>
@@ -7544,10 +7543,10 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="F46" t="s">
         <v>206</v>
@@ -7667,7 +7666,7 @@
         <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="F52" t="s">
         <v>206</v>
@@ -7684,10 +7683,10 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E53" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="F53" t="s">
         <v>206</v>
@@ -7704,10 +7703,10 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="F54" t="s">
         <v>206</v>
@@ -7724,10 +7723,10 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="F55" t="s">
         <v>206</v>
@@ -7744,10 +7743,10 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
         <v>206</v>
@@ -7867,7 +7866,7 @@
         <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="F62" t="s">
         <v>206</v>
@@ -7884,10 +7883,10 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E63" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="F63" t="s">
         <v>206</v>
@@ -7904,10 +7903,10 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="F64" t="s">
         <v>206</v>
@@ -7924,10 +7923,10 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="F65" t="s">
         <v>206</v>
@@ -7944,10 +7943,10 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="F66" t="s">
         <v>206</v>
@@ -8067,7 +8066,7 @@
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="F72" t="s">
         <v>206</v>
@@ -8084,10 +8083,10 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E73" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="F73" t="s">
         <v>206</v>
@@ -8104,10 +8103,10 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E74" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="F74" t="s">
         <v>206</v>
@@ -8124,10 +8123,10 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="F75" t="s">
         <v>206</v>
@@ -8144,10 +8143,10 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="F76" t="s">
         <v>206</v>
@@ -8267,7 +8266,7 @@
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="F82" t="s">
         <v>206</v>
@@ -8284,10 +8283,10 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E83" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="F83" t="s">
         <v>206</v>
@@ -8304,10 +8303,10 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E84" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="F84" t="s">
         <v>206</v>
@@ -8324,10 +8323,10 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="F85" t="s">
         <v>206</v>
@@ -8344,10 +8343,10 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="F86" t="s">
         <v>206</v>
@@ -8467,7 +8466,7 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="F92" t="s">
         <v>206</v>
@@ -8484,10 +8483,10 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E93" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="F93" t="s">
         <v>206</v>
@@ -8504,10 +8503,10 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E94" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="F94" t="s">
         <v>206</v>
@@ -8524,10 +8523,10 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E95" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="F95" t="s">
         <v>206</v>
@@ -8544,10 +8543,10 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E96" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="F96" t="s">
         <v>206</v>
@@ -8667,7 +8666,7 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="F102" t="s">
         <v>206</v>
@@ -8684,10 +8683,10 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E103" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="F103" t="s">
         <v>206</v>
@@ -8704,10 +8703,10 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E104" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="F104" t="s">
         <v>206</v>
@@ -8724,10 +8723,10 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="F105" t="s">
         <v>206</v>
@@ -8744,10 +8743,10 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="F106" t="s">
         <v>206</v>
@@ -8867,7 +8866,7 @@
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="F112" t="s">
         <v>206</v>
@@ -8884,10 +8883,10 @@
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="F113" t="s">
         <v>206</v>
@@ -8904,10 +8903,10 @@
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E114" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="F114" t="s">
         <v>206</v>
@@ -8924,10 +8923,10 @@
         <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E115" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="F115" t="s">
         <v>206</v>
@@ -8944,10 +8943,10 @@
         <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E116" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="F116" t="s">
         <v>206</v>
@@ -9067,7 +9066,7 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="F122" t="s">
         <v>206</v>
@@ -9084,10 +9083,10 @@
         <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="F123" t="s">
         <v>206</v>
@@ -9104,10 +9103,10 @@
         <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E124" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="F124" t="s">
         <v>206</v>
@@ -9124,10 +9123,10 @@
         <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E125" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="F125" t="s">
         <v>206</v>
@@ -9144,10 +9143,10 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E126" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="F126" t="s">
         <v>206</v>
@@ -9267,7 +9266,7 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="F132" t="s">
         <v>206</v>
@@ -9284,10 +9283,10 @@
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="F133" t="s">
         <v>206</v>
@@ -9304,10 +9303,10 @@
         <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E134" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="F134" t="s">
         <v>206</v>
@@ -9324,10 +9323,10 @@
         <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E135" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="F135" t="s">
         <v>206</v>
@@ -9344,10 +9343,10 @@
         <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E136" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="F136" t="s">
         <v>206</v>
@@ -9467,7 +9466,7 @@
         <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
         <v>206</v>
@@ -9484,10 +9483,10 @@
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E143" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
         <v>206</v>
@@ -9504,10 +9503,10 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E144" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
         <v>206</v>
@@ -9524,10 +9523,10 @@
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E145" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
         <v>206</v>
@@ -9544,10 +9543,10 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E146" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
         <v>206</v>
@@ -9667,7 +9666,7 @@
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="F152" t="s">
         <v>206</v>
@@ -9684,10 +9683,10 @@
         <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E153" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="F153" t="s">
         <v>206</v>
@@ -9704,10 +9703,10 @@
         <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E154" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="F154" t="s">
         <v>206</v>
@@ -9724,10 +9723,10 @@
         <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="F155" t="s">
         <v>206</v>
@@ -9744,10 +9743,10 @@
         <v>26</v>
       </c>
       <c r="D156" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
         <v>206</v>
@@ -9967,7 +9966,7 @@
         <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F167" t="s">
         <v>206</v>
@@ -9984,10 +9983,10 @@
         <v>26</v>
       </c>
       <c r="D168" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F168" t="s">
         <v>206</v>
@@ -10004,10 +10003,10 @@
         <v>26</v>
       </c>
       <c r="D169" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E169" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F169" t="s">
         <v>206</v>
@@ -10024,10 +10023,10 @@
         <v>26</v>
       </c>
       <c r="D170" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E170" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F170" t="s">
         <v>206</v>
@@ -10044,10 +10043,10 @@
         <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E171" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F171" t="s">
         <v>206</v>
@@ -10167,7 +10166,7 @@
         <v>27</v>
       </c>
       <c r="E177" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F177" t="s">
         <v>206</v>
@@ -10184,10 +10183,10 @@
         <v>26</v>
       </c>
       <c r="D178" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E178" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F178" t="s">
         <v>206</v>
@@ -10204,10 +10203,10 @@
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E179" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F179" t="s">
         <v>206</v>
@@ -10224,10 +10223,10 @@
         <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E180" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F180" t="s">
         <v>206</v>
@@ -10244,10 +10243,10 @@
         <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E181" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F181" t="s">
         <v>206</v>
@@ -10467,7 +10466,7 @@
         <v>27</v>
       </c>
       <c r="E192" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="F192" t="s">
         <v>206</v>
@@ -10484,10 +10483,10 @@
         <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E193" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="F193" t="s">
         <v>206</v>
@@ -10504,10 +10503,10 @@
         <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E194" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="F194" t="s">
         <v>206</v>
@@ -10524,10 +10523,10 @@
         <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E195" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="F195" t="s">
         <v>206</v>
@@ -10544,10 +10543,10 @@
         <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E196" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="F196" t="s">
         <v>206</v>
@@ -10667,7 +10666,7 @@
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="F202" t="s">
         <v>206</v>
@@ -10684,10 +10683,10 @@
         <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E203" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="F203" t="s">
         <v>206</v>
@@ -10704,10 +10703,10 @@
         <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E204" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="F204" t="s">
         <v>206</v>
@@ -10724,10 +10723,10 @@
         <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E205" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="F205" t="s">
         <v>206</v>
@@ -10744,10 +10743,10 @@
         <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E206" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="F206" t="s">
         <v>206</v>
@@ -10767,7 +10766,7 @@
         <v>27</v>
       </c>
       <c r="E207" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="F207" t="s">
         <v>206</v>
@@ -10787,7 +10786,7 @@
         <v>34</v>
       </c>
       <c r="E208" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="F208" t="s">
         <v>206</v>
@@ -10807,7 +10806,7 @@
         <v>35</v>
       </c>
       <c r="E209" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="F209" t="s">
         <v>206</v>
@@ -10827,7 +10826,7 @@
         <v>36</v>
       </c>
       <c r="E210" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="F210" t="s">
         <v>206</v>
@@ -10847,7 +10846,7 @@
         <v>37</v>
       </c>
       <c r="E211" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="F211" t="s">
         <v>206</v>
@@ -10967,7 +10966,7 @@
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="F217" t="s">
         <v>206</v>
@@ -10984,10 +10983,10 @@
         <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E218" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="F218" t="s">
         <v>206</v>
@@ -11004,10 +11003,10 @@
         <v>26</v>
       </c>
       <c r="D219" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E219" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="F219" t="s">
         <v>206</v>
@@ -11024,10 +11023,10 @@
         <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E220" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="F220" t="s">
         <v>206</v>
@@ -11044,10 +11043,10 @@
         <v>26</v>
       </c>
       <c r="D221" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E221" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="F221" t="s">
         <v>206</v>
@@ -11167,7 +11166,7 @@
         <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F227" t="s">
         <v>206</v>
@@ -11184,10 +11183,10 @@
         <v>26</v>
       </c>
       <c r="D228" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F228" t="s">
         <v>206</v>
@@ -11204,10 +11203,10 @@
         <v>26</v>
       </c>
       <c r="D229" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E229" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F229" t="s">
         <v>206</v>
@@ -11224,10 +11223,10 @@
         <v>26</v>
       </c>
       <c r="D230" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E230" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F230" t="s">
         <v>206</v>
@@ -11244,10 +11243,10 @@
         <v>26</v>
       </c>
       <c r="D231" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E231" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F231" t="s">
         <v>206</v>
@@ -11367,7 +11366,7 @@
         <v>27</v>
       </c>
       <c r="E237" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="F237" t="s">
         <v>206</v>
@@ -11384,10 +11383,10 @@
         <v>26</v>
       </c>
       <c r="D238" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E238" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="F238" t="s">
         <v>206</v>
@@ -11404,10 +11403,10 @@
         <v>26</v>
       </c>
       <c r="D239" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E239" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="F239" t="s">
         <v>206</v>
@@ -11424,10 +11423,10 @@
         <v>26</v>
       </c>
       <c r="D240" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E240" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="F240" t="s">
         <v>206</v>
@@ -11444,10 +11443,10 @@
         <v>26</v>
       </c>
       <c r="D241" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E241" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="F241" t="s">
         <v>206</v>
@@ -11467,7 +11466,7 @@
         <v>27</v>
       </c>
       <c r="E242" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="F242" t="s">
         <v>206</v>
@@ -11487,7 +11486,7 @@
         <v>34</v>
       </c>
       <c r="E243" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="F243" t="s">
         <v>206</v>
@@ -11507,7 +11506,7 @@
         <v>35</v>
       </c>
       <c r="E244" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="F244" t="s">
         <v>206</v>
@@ -11527,7 +11526,7 @@
         <v>36</v>
       </c>
       <c r="E245" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="F245" t="s">
         <v>206</v>
@@ -11547,7 +11546,7 @@
         <v>37</v>
       </c>
       <c r="E246" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="F246" t="s">
         <v>206</v>
@@ -11667,7 +11666,7 @@
         <v>27</v>
       </c>
       <c r="E252" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F252" t="s">
         <v>206</v>
@@ -11684,10 +11683,10 @@
         <v>26</v>
       </c>
       <c r="D253" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E253" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F253" t="s">
         <v>206</v>
@@ -11704,10 +11703,10 @@
         <v>26</v>
       </c>
       <c r="D254" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E254" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F254" t="s">
         <v>206</v>
@@ -11724,10 +11723,10 @@
         <v>26</v>
       </c>
       <c r="D255" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E255" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F255" t="s">
         <v>206</v>
@@ -11744,10 +11743,10 @@
         <v>26</v>
       </c>
       <c r="D256" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E256" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F256" t="s">
         <v>206</v>
@@ -11867,7 +11866,7 @@
         <v>27</v>
       </c>
       <c r="E262" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="F262" t="s">
         <v>206</v>
@@ -11884,10 +11883,10 @@
         <v>26</v>
       </c>
       <c r="D263" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E263" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="F263" t="s">
         <v>206</v>
@@ -11904,10 +11903,10 @@
         <v>26</v>
       </c>
       <c r="D264" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E264" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="F264" t="s">
         <v>206</v>
@@ -11924,10 +11923,10 @@
         <v>26</v>
       </c>
       <c r="D265" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E265" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="F265" t="s">
         <v>206</v>
@@ -11944,10 +11943,10 @@
         <v>26</v>
       </c>
       <c r="D266" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E266" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="F266" t="s">
         <v>206</v>
@@ -11967,7 +11966,7 @@
         <v>27</v>
       </c>
       <c r="E267" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="F267" t="s">
         <v>206</v>
@@ -11987,7 +11986,7 @@
         <v>34</v>
       </c>
       <c r="E268" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="F268" t="s">
         <v>206</v>
@@ -12007,7 +12006,7 @@
         <v>35</v>
       </c>
       <c r="E269" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="F269" t="s">
         <v>206</v>
@@ -12027,7 +12026,7 @@
         <v>36</v>
       </c>
       <c r="E270" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="F270" t="s">
         <v>206</v>
@@ -12047,7 +12046,7 @@
         <v>37</v>
       </c>
       <c r="E271" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="F271" t="s">
         <v>206</v>
@@ -12167,7 +12166,7 @@
         <v>27</v>
       </c>
       <c r="E277" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F277" t="s">
         <v>206</v>
@@ -12184,10 +12183,10 @@
         <v>26</v>
       </c>
       <c r="D278" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E278" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F278" t="s">
         <v>206</v>
@@ -12204,10 +12203,10 @@
         <v>26</v>
       </c>
       <c r="D279" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E279" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F279" t="s">
         <v>206</v>
@@ -12224,10 +12223,10 @@
         <v>26</v>
       </c>
       <c r="D280" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E280" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F280" t="s">
         <v>206</v>
@@ -12244,10 +12243,10 @@
         <v>26</v>
       </c>
       <c r="D281" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E281" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F281" t="s">
         <v>206</v>
@@ -12367,7 +12366,7 @@
         <v>27</v>
       </c>
       <c r="E287" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F287" t="s">
         <v>206</v>
@@ -12384,10 +12383,10 @@
         <v>26</v>
       </c>
       <c r="D288" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E288" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F288" t="s">
         <v>206</v>
@@ -12404,10 +12403,10 @@
         <v>26</v>
       </c>
       <c r="D289" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E289" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F289" t="s">
         <v>206</v>
@@ -12424,10 +12423,10 @@
         <v>26</v>
       </c>
       <c r="D290" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E290" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F290" t="s">
         <v>206</v>
@@ -12444,10 +12443,10 @@
         <v>26</v>
       </c>
       <c r="D291" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E291" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F291" t="s">
         <v>206</v>
@@ -12567,7 +12566,7 @@
         <v>27</v>
       </c>
       <c r="E297" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="F297" t="s">
         <v>206</v>
@@ -12584,10 +12583,10 @@
         <v>26</v>
       </c>
       <c r="D298" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E298" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="F298" t="s">
         <v>206</v>
@@ -12604,10 +12603,10 @@
         <v>26</v>
       </c>
       <c r="D299" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E299" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="F299" t="s">
         <v>206</v>
@@ -12624,10 +12623,10 @@
         <v>26</v>
       </c>
       <c r="D300" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E300" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="F300" t="s">
         <v>206</v>
@@ -12644,10 +12643,10 @@
         <v>26</v>
       </c>
       <c r="D301" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E301" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="F301" t="s">
         <v>206</v>
@@ -12767,7 +12766,7 @@
         <v>27</v>
       </c>
       <c r="E307" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F307" t="s">
         <v>206</v>
@@ -12784,10 +12783,10 @@
         <v>26</v>
       </c>
       <c r="D308" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E308" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F308" t="s">
         <v>206</v>
@@ -12804,10 +12803,10 @@
         <v>26</v>
       </c>
       <c r="D309" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E309" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F309" t="s">
         <v>206</v>
@@ -12824,10 +12823,10 @@
         <v>26</v>
       </c>
       <c r="D310" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E310" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F310" t="s">
         <v>206</v>
@@ -12844,10 +12843,10 @@
         <v>26</v>
       </c>
       <c r="D311" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E311" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F311" t="s">
         <v>206</v>
@@ -12967,7 +12966,7 @@
         <v>27</v>
       </c>
       <c r="E317" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F317" t="s">
         <v>206</v>
@@ -12984,10 +12983,10 @@
         <v>26</v>
       </c>
       <c r="D318" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E318" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F318" t="s">
         <v>206</v>
@@ -13004,10 +13003,10 @@
         <v>26</v>
       </c>
       <c r="D319" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E319" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F319" t="s">
         <v>206</v>
@@ -13024,10 +13023,10 @@
         <v>26</v>
       </c>
       <c r="D320" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E320" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F320" t="s">
         <v>206</v>
@@ -13044,10 +13043,10 @@
         <v>26</v>
       </c>
       <c r="D321" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E321" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F321" t="s">
         <v>206</v>
@@ -13167,7 +13166,7 @@
         <v>27</v>
       </c>
       <c r="E327" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F327" t="s">
         <v>206</v>
@@ -13184,10 +13183,10 @@
         <v>26</v>
       </c>
       <c r="D328" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E328" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F328" t="s">
         <v>206</v>
@@ -13204,10 +13203,10 @@
         <v>26</v>
       </c>
       <c r="D329" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E329" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F329" t="s">
         <v>206</v>
@@ -13224,10 +13223,10 @@
         <v>26</v>
       </c>
       <c r="D330" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E330" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F330" t="s">
         <v>206</v>
@@ -13244,10 +13243,10 @@
         <v>26</v>
       </c>
       <c r="D331" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E331" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F331" t="s">
         <v>206</v>
@@ -13467,7 +13466,7 @@
         <v>27</v>
       </c>
       <c r="E342" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="F342" t="s">
         <v>206</v>
@@ -13484,10 +13483,10 @@
         <v>26</v>
       </c>
       <c r="D343" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E343" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="F343" t="s">
         <v>206</v>
@@ -13504,10 +13503,10 @@
         <v>26</v>
       </c>
       <c r="D344" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E344" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="F344" t="s">
         <v>206</v>
@@ -13524,10 +13523,10 @@
         <v>26</v>
       </c>
       <c r="D345" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E345" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="F345" t="s">
         <v>206</v>
@@ -13544,10 +13543,10 @@
         <v>26</v>
       </c>
       <c r="D346" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E346" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="F346" t="s">
         <v>206</v>
@@ -13555,7 +13554,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="B347" t="s">
         <v>25</v>
@@ -13567,7 +13566,7 @@
         <v>27</v>
       </c>
       <c r="E347" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="F347" t="s">
         <v>206</v>
@@ -13575,7 +13574,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="B348" t="s">
         <v>25</v>
@@ -13584,10 +13583,10 @@
         <v>26</v>
       </c>
       <c r="D348" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E348" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="F348" t="s">
         <v>206</v>
@@ -13595,7 +13594,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="B349" t="s">
         <v>25</v>
@@ -13604,10 +13603,10 @@
         <v>26</v>
       </c>
       <c r="D349" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E349" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="F349" t="s">
         <v>206</v>
@@ -13615,7 +13614,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="B350" t="s">
         <v>25</v>
@@ -13624,10 +13623,10 @@
         <v>26</v>
       </c>
       <c r="D350" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E350" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="F350" t="s">
         <v>206</v>
@@ -13635,7 +13634,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="B351" t="s">
         <v>25</v>
@@ -13644,10 +13643,10 @@
         <v>26</v>
       </c>
       <c r="D351" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E351" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="F351" t="s">
         <v>206</v>
@@ -13767,7 +13766,7 @@
         <v>27</v>
       </c>
       <c r="E357" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F357" t="s">
         <v>206</v>
@@ -13784,10 +13783,10 @@
         <v>26</v>
       </c>
       <c r="D358" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E358" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F358" t="s">
         <v>206</v>
@@ -13804,10 +13803,10 @@
         <v>26</v>
       </c>
       <c r="D359" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E359" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F359" t="s">
         <v>206</v>
@@ -13824,10 +13823,10 @@
         <v>26</v>
       </c>
       <c r="D360" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E360" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F360" t="s">
         <v>206</v>
@@ -13844,10 +13843,10 @@
         <v>26</v>
       </c>
       <c r="D361" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E361" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F361" t="s">
         <v>206</v>
@@ -13867,7 +13866,7 @@
         <v>27</v>
       </c>
       <c r="E362" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="F362" t="s">
         <v>206</v>
@@ -13887,7 +13886,7 @@
         <v>34</v>
       </c>
       <c r="E363" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="F363" t="s">
         <v>206</v>
@@ -13907,7 +13906,7 @@
         <v>35</v>
       </c>
       <c r="E364" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="F364" t="s">
         <v>206</v>
@@ -13927,7 +13926,7 @@
         <v>36</v>
       </c>
       <c r="E365" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="F365" t="s">
         <v>206</v>
@@ -13947,7 +13946,7 @@
         <v>37</v>
       </c>
       <c r="E366" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="F366" t="s">
         <v>206</v>
@@ -14067,7 +14066,7 @@
         <v>27</v>
       </c>
       <c r="E372" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F372" t="s">
         <v>206</v>
@@ -14084,10 +14083,10 @@
         <v>26</v>
       </c>
       <c r="D373" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E373" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F373" t="s">
         <v>206</v>
@@ -14104,10 +14103,10 @@
         <v>26</v>
       </c>
       <c r="D374" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E374" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F374" t="s">
         <v>206</v>
@@ -14124,10 +14123,10 @@
         <v>26</v>
       </c>
       <c r="D375" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E375" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F375" t="s">
         <v>206</v>
@@ -14144,10 +14143,10 @@
         <v>26</v>
       </c>
       <c r="D376" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E376" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F376" t="s">
         <v>206</v>
@@ -14267,7 +14266,7 @@
         <v>27</v>
       </c>
       <c r="E382" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F382" t="s">
         <v>206</v>
@@ -14284,10 +14283,10 @@
         <v>26</v>
       </c>
       <c r="D383" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E383" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F383" t="s">
         <v>206</v>
@@ -14304,10 +14303,10 @@
         <v>26</v>
       </c>
       <c r="D384" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="E384" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F384" t="s">
         <v>206</v>
@@ -14324,10 +14323,10 @@
         <v>26</v>
       </c>
       <c r="D385" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E385" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F385" t="s">
         <v>206</v>
@@ -14344,10 +14343,10 @@
         <v>26</v>
       </c>
       <c r="D386" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E386" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F386" t="s">
         <v>206</v>
@@ -14414,7 +14413,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
         <v>206</v>
@@ -14434,7 +14433,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
         <v>206</v>
@@ -14454,7 +14453,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
         <v>206</v>
@@ -14474,7 +14473,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -14494,7 +14493,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F6" t="s">
         <v>206</v>
@@ -15014,7 +15013,7 @@
         <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="F32" t="s">
         <v>206</v>
@@ -15034,7 +15033,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -15054,7 +15053,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="F34" t="s">
         <v>206</v>
@@ -15074,7 +15073,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="F35" t="s">
         <v>206</v>
@@ -15094,7 +15093,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="F36" t="s">
         <v>206</v>
@@ -15314,7 +15313,7 @@
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="F47" t="s">
         <v>206</v>
@@ -15334,7 +15333,7 @@
         <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s">
         <v>206</v>
@@ -15354,7 +15353,7 @@
         <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="F49" t="s">
         <v>206</v>
@@ -15374,7 +15373,7 @@
         <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="F50" t="s">
         <v>206</v>
@@ -15394,7 +15393,7 @@
         <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="F51" t="s">
         <v>206</v>
@@ -16346,7 +16345,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -16358,7 +16357,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
         <v>206</v>
@@ -16366,7 +16365,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -16378,7 +16377,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
         <v>206</v>
@@ -16386,7 +16385,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -16398,7 +16397,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
         <v>206</v>
@@ -16406,7 +16405,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -16418,7 +16417,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -16426,7 +16425,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -16438,7 +16437,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
         <v>206</v>
@@ -16658,7 +16657,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
         <v>206</v>
@@ -16678,7 +16677,7 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F18" t="s">
         <v>206</v>
@@ -16698,7 +16697,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F19" t="s">
         <v>206</v>
@@ -16718,7 +16717,7 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
         <v>206</v>
@@ -16738,7 +16737,7 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
         <v>206</v>
@@ -16901,7 +16900,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
         <v>206</v>
@@ -16921,7 +16920,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
         <v>206</v>
@@ -16941,7 +16940,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
         <v>206</v>
@@ -16961,7 +16960,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
         <v>206</v>
@@ -16981,7 +16980,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F11" t="s">
         <v>206</v>
@@ -17032,7 +17031,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -17044,7 +17043,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
         <v>206</v>
@@ -17052,7 +17051,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -17064,7 +17063,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
         <v>206</v>
@@ -17072,7 +17071,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -17084,7 +17083,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
         <v>206</v>
@@ -17092,7 +17091,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -17104,7 +17103,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -17112,7 +17111,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -17124,7 +17123,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
         <v>206</v>
@@ -17212,7 +17211,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -17232,7 +17231,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -17244,7 +17243,7 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>206</v>
@@ -17252,7 +17251,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -17264,7 +17263,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F13" t="s">
         <v>206</v>
@@ -17272,7 +17271,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -17284,7 +17283,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
         <v>206</v>
@@ -17292,7 +17291,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -17304,7 +17303,7 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
         <v>206</v>
@@ -17312,7 +17311,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -17324,7 +17323,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F16" t="s">
         <v>206</v>
@@ -17375,7 +17374,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -17387,7 +17386,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
         <v>206</v>
@@ -17395,7 +17394,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -17407,7 +17406,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F3" t="s">
         <v>206</v>
@@ -17415,7 +17414,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -17427,7 +17426,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
         <v>206</v>
@@ -17435,7 +17434,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -17447,7 +17446,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -17455,7 +17454,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -17467,7 +17466,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
         <v>206</v>
@@ -17518,7 +17517,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -17530,7 +17529,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
         <v>206</v>
@@ -17538,7 +17537,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -17550,7 +17549,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
         <v>206</v>
@@ -17558,7 +17557,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -17570,7 +17569,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F4" t="s">
         <v>206</v>
@@ -17578,7 +17577,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -17590,7 +17589,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -17598,7 +17597,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -17610,7 +17609,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
         <v>206</v>
@@ -17618,7 +17617,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -17630,7 +17629,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
         <v>206</v>
@@ -17638,7 +17637,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -17650,7 +17649,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
         <v>206</v>
@@ -17658,7 +17657,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -17670,7 +17669,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
         <v>206</v>
@@ -17678,7 +17677,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -17690,7 +17689,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
         <v>206</v>
@@ -17698,7 +17697,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -17710,7 +17709,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
         <v>206</v>
@@ -17718,7 +17717,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -17730,7 +17729,7 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F12" t="s">
         <v>206</v>
@@ -17738,7 +17737,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -17750,7 +17749,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F13" t="s">
         <v>206</v>
@@ -17758,7 +17757,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -17770,7 +17769,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F14" t="s">
         <v>206</v>
@@ -17778,7 +17777,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -17790,7 +17789,7 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
         <v>206</v>
@@ -17798,7 +17797,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -17810,7 +17809,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
         <v>206</v>
@@ -17830,7 +17829,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
         <v>206</v>
@@ -17850,7 +17849,7 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="F18" t="s">
         <v>206</v>
@@ -17870,7 +17869,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="F19" t="s">
         <v>206</v>
@@ -17890,7 +17889,7 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="F20" t="s">
         <v>206</v>
@@ -17910,7 +17909,7 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="F21" t="s">
         <v>206</v>
@@ -18141,42 +18140,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
         <v>206</v>
@@ -18184,22 +18183,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
         <v>206</v>
@@ -18207,22 +18206,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="G4" t="s">
         <v>206</v>
@@ -18230,22 +18229,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="G5" t="s">
         <v>206</v>
@@ -18253,22 +18252,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="G6" t="s">
         <v>206</v>
@@ -18276,22 +18275,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="G7" t="s">
         <v>206</v>
@@ -18299,22 +18298,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
         <v>206</v>
@@ -18322,22 +18321,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="G9" t="s">
         <v>206</v>
@@ -18345,22 +18344,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="G10" t="s">
         <v>206</v>
@@ -18368,22 +18367,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="G11" t="s">
         <v>206</v>
@@ -18391,22 +18390,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="G12" t="s">
         <v>206</v>
@@ -18414,22 +18413,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="G13" t="s">
         <v>206</v>
@@ -18437,22 +18436,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="G14" t="s">
         <v>206</v>
@@ -18460,22 +18459,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="G15" t="s">
         <v>206</v>
@@ -18483,22 +18482,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="G16" t="s">
         <v>206</v>
@@ -18506,22 +18505,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="G17" t="s">
         <v>206</v>
@@ -18529,22 +18528,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="G18" t="s">
         <v>206</v>
@@ -18552,22 +18551,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
         <v>206</v>
@@ -18575,22 +18574,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="G20" t="s">
         <v>206</v>
@@ -18598,22 +18597,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="G21" t="s">
         <v>206</v>
@@ -18621,22 +18620,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="G22" t="s">
         <v>206</v>
@@ -18644,22 +18643,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="G23" t="s">
         <v>206</v>
@@ -18667,22 +18666,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
         <v>206</v>
@@ -18690,22 +18689,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="G25" t="s">
         <v>206</v>
@@ -18713,22 +18712,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B26" t="s">
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="G26" t="s">
         <v>206</v>
@@ -18736,22 +18735,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="G27" t="s">
         <v>206</v>
@@ -18759,22 +18758,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
         <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="G28" t="s">
         <v>206</v>
@@ -18782,22 +18781,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s">
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="G29" t="s">
         <v>206</v>
@@ -18805,22 +18804,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s">
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="G30" t="s">
         <v>206</v>
@@ -18828,22 +18827,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s">
         <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="G31" t="s">
         <v>206</v>
@@ -18851,22 +18850,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
         <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
         <v>206</v>
@@ -18874,22 +18873,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s">
         <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
         <v>206</v>
@@ -18897,22 +18896,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s">
         <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
         <v>206</v>
@@ -18920,22 +18919,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="G35" t="s">
         <v>206</v>
@@ -18943,22 +18942,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
         <v>206</v>
@@ -18966,22 +18965,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s">
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
         <v>206</v>
@@ -18989,22 +18988,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s">
         <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="G38" t="s">
         <v>206</v>
@@ -19012,22 +19011,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="G39" t="s">
         <v>206</v>
@@ -19035,22 +19034,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
         <v>206</v>
@@ -19058,22 +19057,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
         <v>206</v>
@@ -19081,22 +19080,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
         <v>206</v>
@@ -19104,22 +19103,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F43" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="G43" t="s">
         <v>206</v>
@@ -19127,22 +19126,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="G44" t="s">
         <v>206</v>
@@ -19150,22 +19149,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="G45" t="s">
         <v>206</v>
@@ -19173,22 +19172,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="G46" t="s">
         <v>206</v>
@@ -19196,22 +19195,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s">
         <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="G47" t="s">
         <v>206</v>
@@ -19219,22 +19218,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s">
         <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="G48" t="s">
         <v>206</v>
@@ -19242,22 +19241,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s">
         <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="G49" t="s">
         <v>206</v>
@@ -19265,22 +19264,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s">
         <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="G50" t="s">
         <v>206</v>
@@ -19288,22 +19287,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E51" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="G51" t="s">
         <v>206</v>
@@ -19311,22 +19310,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
         <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="G52" t="s">
         <v>206</v>
@@ -19334,22 +19333,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="G53" t="s">
         <v>206</v>
@@ -19357,22 +19356,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F54" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="G54" t="s">
         <v>206</v>
@@ -19380,22 +19379,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s">
         <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E55" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="G55" t="s">
         <v>206</v>
@@ -19403,22 +19402,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="G56" t="s">
         <v>206</v>
@@ -19426,22 +19425,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s">
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F57" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="G57" t="s">
         <v>206</v>
@@ -19449,22 +19448,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="G58" t="s">
         <v>206</v>
@@ -19472,22 +19471,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E59" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="G59" t="s">
         <v>206</v>
@@ -19495,22 +19494,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s">
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E60" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="G60" t="s">
         <v>206</v>
@@ -19518,22 +19517,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="G61" t="s">
         <v>206</v>
@@ -19541,22 +19540,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B62" t="s">
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="G62" t="s">
         <v>206</v>
@@ -19564,22 +19563,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s">
         <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="G63" t="s">
         <v>206</v>
@@ -19587,22 +19586,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B64" t="s">
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F64" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="G64" t="s">
         <v>206</v>
@@ -19610,22 +19609,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B65" t="s">
         <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F65" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="G65" t="s">
         <v>206</v>
@@ -19633,22 +19632,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B66" t="s">
         <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F66" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="G66" t="s">
         <v>206</v>
@@ -19656,22 +19655,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B67" t="s">
         <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E67" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F67" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="G67" t="s">
         <v>206</v>
@@ -19679,22 +19678,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B68" t="s">
         <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E68" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F68" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="G68" t="s">
         <v>206</v>
@@ -19702,22 +19701,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B69" t="s">
         <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E69" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F69" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="G69" t="s">
         <v>206</v>
@@ -19725,22 +19724,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B70" t="s">
         <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E70" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="G70" t="s">
         <v>206</v>
@@ -19748,22 +19747,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B71" t="s">
         <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E71" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F71" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="G71" t="s">
         <v>206</v>
@@ -19771,22 +19770,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B72" t="s">
         <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F72" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="G72" t="s">
         <v>206</v>
@@ -19794,22 +19793,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B73" t="s">
         <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E73" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F73" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="G73" t="s">
         <v>206</v>
@@ -19817,22 +19816,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B74" t="s">
         <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F74" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="G74" t="s">
         <v>206</v>
@@ -19840,22 +19839,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B75" t="s">
         <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F75" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="G75" t="s">
         <v>206</v>
@@ -19863,22 +19862,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B76" t="s">
         <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F76" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="G76" t="s">
         <v>206</v>
@@ -19886,22 +19885,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B77" t="s">
         <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E77" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F77" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="G77" t="s">
         <v>206</v>
@@ -19909,22 +19908,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E78" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F78" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="G78" t="s">
         <v>206</v>
@@ -19932,22 +19931,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B79" t="s">
         <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="G79" t="s">
         <v>206</v>
@@ -19955,22 +19954,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B80" t="s">
         <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E80" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="G80" t="s">
         <v>206</v>
@@ -19978,22 +19977,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s">
         <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D81" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F81" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="G81" t="s">
         <v>206</v>
@@ -20001,22 +20000,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s">
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F82" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="G82" t="s">
         <v>206</v>
@@ -20024,22 +20023,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B83" t="s">
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F83" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="G83" t="s">
         <v>206</v>
@@ -20047,22 +20046,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B84" t="s">
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F84" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="G84" t="s">
         <v>206</v>
@@ -20070,22 +20069,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s">
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F85" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="G85" t="s">
         <v>206</v>
@@ -20093,22 +20092,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B86" t="s">
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="G86" t="s">
         <v>206</v>
@@ -20116,22 +20115,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F87" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="G87" t="s">
         <v>206</v>
@@ -20139,22 +20138,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E88" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F88" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="G88" t="s">
         <v>206</v>
@@ -20162,22 +20161,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s">
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E89" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="G89" t="s">
         <v>206</v>
@@ -20185,22 +20184,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E90" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F90" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="G90" t="s">
         <v>206</v>
@@ -20208,22 +20207,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F91" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="G91" t="s">
         <v>206</v>
@@ -20231,22 +20230,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E92" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F92" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="G92" t="s">
         <v>206</v>
@@ -20254,22 +20253,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E93" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F93" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="G93" t="s">
         <v>206</v>
@@ -20277,22 +20276,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="G94" t="s">
         <v>206</v>
@@ -20300,22 +20299,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="G95" t="s">
         <v>206</v>
@@ -20323,22 +20322,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F96" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="G96" t="s">
         <v>206</v>
@@ -20346,22 +20345,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s">
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F97" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="G97" t="s">
         <v>206</v>
@@ -20369,22 +20368,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F98" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="G98" t="s">
         <v>206</v>
@@ -20392,22 +20391,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E99" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F99" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="G99" t="s">
         <v>206</v>
@@ -20415,22 +20414,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F100" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="G100" t="s">
         <v>206</v>
@@ -20438,22 +20437,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F101" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="G101" t="s">
         <v>206</v>
@@ -20461,22 +20460,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
         <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E102" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F102" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="G102" t="s">
         <v>206</v>
@@ -20484,22 +20483,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
         <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E103" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F103" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="G103" t="s">
         <v>206</v>
@@ -20507,22 +20506,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B104" t="s">
         <v>93</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D104" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E104" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F104" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="G104" t="s">
         <v>206</v>
@@ -20530,22 +20529,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s">
         <v>93</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E105" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F105" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="G105" t="s">
         <v>206</v>
@@ -20553,22 +20552,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
         <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E106" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F106" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="G106" t="s">
         <v>206</v>
@@ -20576,22 +20575,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D107" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E107" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F107" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="G107" t="s">
         <v>206</v>
@@ -20599,22 +20598,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D108" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E108" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F108" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="G108" t="s">
         <v>206</v>
@@ -20622,22 +20621,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B109" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E109" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F109" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="G109" t="s">
         <v>206</v>
@@ -20645,22 +20644,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D110" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E110" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F110" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="G110" t="s">
         <v>206</v>
@@ -20668,22 +20667,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D111" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E111" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F111" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="G111" t="s">
         <v>206</v>
@@ -20691,22 +20690,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B112" t="s">
         <v>97</v>
       </c>
       <c r="C112" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D112" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E112" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="G112" t="s">
         <v>206</v>
@@ -20714,22 +20713,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s">
         <v>97</v>
       </c>
       <c r="C113" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E113" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="G113" t="s">
         <v>206</v>
@@ -20737,22 +20736,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
         <v>97</v>
       </c>
       <c r="C114" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E114" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="G114" t="s">
         <v>206</v>
@@ -20760,22 +20759,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B115" t="s">
         <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D115" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E115" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="G115" t="s">
         <v>206</v>
@@ -20783,22 +20782,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B116" t="s">
         <v>97</v>
       </c>
       <c r="C116" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D116" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E116" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="G116" t="s">
         <v>206</v>
@@ -20806,22 +20805,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B117" t="s">
         <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D117" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E117" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F117" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="G117" t="s">
         <v>206</v>
@@ -20829,22 +20828,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B118" t="s">
         <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D118" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E118" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="G118" t="s">
         <v>206</v>
@@ -20852,22 +20851,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B119" t="s">
         <v>101</v>
       </c>
       <c r="C119" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D119" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E119" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="G119" t="s">
         <v>206</v>
@@ -20875,22 +20874,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B120" t="s">
         <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D120" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E120" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="G120" t="s">
         <v>206</v>
@@ -20898,22 +20897,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B121" t="s">
         <v>101</v>
       </c>
       <c r="C121" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D121" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E121" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F121" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="G121" t="s">
         <v>206</v>
@@ -20921,22 +20920,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B122" t="s">
         <v>98</v>
       </c>
       <c r="C122" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D122" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E122" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F122" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="G122" t="s">
         <v>206</v>
@@ -20944,22 +20943,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B123" t="s">
         <v>98</v>
       </c>
       <c r="C123" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D123" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E123" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="G123" t="s">
         <v>206</v>
@@ -20967,22 +20966,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B124" t="s">
         <v>98</v>
       </c>
       <c r="C124" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D124" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E124" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F124" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="G124" t="s">
         <v>206</v>
@@ -20990,22 +20989,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B125" t="s">
         <v>98</v>
       </c>
       <c r="C125" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D125" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E125" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F125" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="G125" t="s">
         <v>206</v>
@@ -21013,22 +21012,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B126" t="s">
         <v>98</v>
       </c>
       <c r="C126" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D126" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E126" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F126" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="G126" t="s">
         <v>206</v>
@@ -21036,22 +21035,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B127" t="s">
         <v>104</v>
       </c>
       <c r="C127" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D127" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E127" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F127" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="G127" t="s">
         <v>206</v>
@@ -21059,22 +21058,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B128" t="s">
         <v>104</v>
       </c>
       <c r="C128" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D128" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E128" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F128" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="G128" t="s">
         <v>206</v>
@@ -21082,22 +21081,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B129" t="s">
         <v>104</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D129" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E129" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F129" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="G129" t="s">
         <v>206</v>
@@ -21105,22 +21104,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B130" t="s">
         <v>104</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E130" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F130" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="G130" t="s">
         <v>206</v>
@@ -21128,22 +21127,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B131" t="s">
         <v>104</v>
       </c>
       <c r="C131" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E131" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F131" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="G131" t="s">
         <v>206</v>
@@ -21151,22 +21150,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B132" t="s">
         <v>94</v>
       </c>
       <c r="C132" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D132" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E132" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F132" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="G132" t="s">
         <v>206</v>
@@ -21174,22 +21173,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B133" t="s">
         <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D133" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E133" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F133" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="G133" t="s">
         <v>206</v>
@@ -21197,22 +21196,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B134" t="s">
         <v>94</v>
       </c>
       <c r="C134" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D134" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E134" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F134" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="G134" t="s">
         <v>206</v>
@@ -21220,22 +21219,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B135" t="s">
         <v>94</v>
       </c>
       <c r="C135" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D135" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E135" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F135" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="G135" t="s">
         <v>206</v>
@@ -21243,22 +21242,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B136" t="s">
         <v>94</v>
       </c>
       <c r="C136" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D136" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E136" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F136" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="G136" t="s">
         <v>206</v>
@@ -21266,22 +21265,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B137" t="s">
         <v>106</v>
       </c>
       <c r="C137" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D137" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E137" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F137" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="G137" t="s">
         <v>206</v>
@@ -21289,22 +21288,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B138" t="s">
         <v>106</v>
       </c>
       <c r="C138" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D138" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E138" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F138" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="G138" t="s">
         <v>206</v>
@@ -21312,22 +21311,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B139" t="s">
         <v>106</v>
       </c>
       <c r="C139" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D139" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F139" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="G139" t="s">
         <v>206</v>
@@ -21335,22 +21334,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B140" t="s">
         <v>106</v>
       </c>
       <c r="C140" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E140" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="F140" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="G140" t="s">
         <v>206</v>
@@ -21358,22 +21357,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B141" t="s">
         <v>106</v>
       </c>
       <c r="C141" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="E141" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="F141" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="G141" t="s">
         <v>206</v>
